--- a/DB/Basicinfo/Countries-2023-09-24.xlsx
+++ b/DB/Basicinfo/Countries-2023-09-24.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Desktop\Django_Proj\AIS\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIS-Django\DB\Basicinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4635E08-1059-4167-B1EC-78D5CDDA439F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -2436,7 +2437,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2523,13 +2524,13 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2541,13 +2542,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Tablib Dataset" xfId="1"/>
+    <cellStyle name="Normal_Tablib Dataset" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2846,15 +2847,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="13" width="9.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
